--- a/ReadingListInformation/CBRO/DC/Events/XLSXandCSV/[DC Comics] Batman- Legacy (WEB-CBRO)-USER.xlsx
+++ b/ReadingListInformation/CBRO/DC/Events/XLSXandCSV/[DC Comics] Batman- Legacy (WEB-CBRO)-USER.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="49">
   <si>
     <t>SeriesName</t>
   </si>
@@ -49,6 +49,9 @@
     <t>CV Issue Number</t>
   </si>
   <si>
+    <t>CV Series Publisher</t>
+  </si>
+  <si>
     <t>CV Cover Image</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t>Days Between Issues</t>
   </si>
   <si>
-    <t>CV Series Publisher</t>
-  </si>
-  <si>
     <t>Shadow of the Bat</t>
   </si>
   <si>
@@ -79,6 +79,39 @@
     <t>Bane</t>
   </si>
   <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>701</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Issue</t>
   </si>
   <si>
@@ -91,34 +124,7 @@
     <t>Batman: Bane</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>533</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>534</t>
-  </si>
-  <si>
-    <t>701</t>
-  </si>
-  <si>
-    <t>702</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>DC Comics</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -136,7 +142,7 @@
     <t>https://comicvine.gamespot.com/issue/4000-46564/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/issue/4000-42683/</t>
+    <t>https://comicvine.gamespot.com/robin-32-born-with-teeth/4000-42683/</t>
   </si>
   <si>
     <t>https://comicvine.gamespot.com/issue/4000-42827/</t>
@@ -148,16 +154,13 @@
     <t>https://comicvine.gamespot.com/issue/4000-113160/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/issue/4000-42780/</t>
+    <t>https://comicvine.gamespot.com/robin-33-riptide/4000-42780/</t>
   </si>
   <si>
     <t>https://comicvine.gamespot.com/issue/4000-113163/</t>
   </si>
   <si>
     <t>https://comicvine.gamespot.com/issue/4000-214855/</t>
-  </si>
-  <si>
-    <t>DC Comics</t>
   </si>
 </sst>
 </file>
@@ -590,17 +593,17 @@
       <c r="C2" s="2">
         <v>1992</v>
       </c>
-      <c r="D2" s="2">
-        <v>53</v>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3">
         <v>35308</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2">
         <v>4724</v>
@@ -609,25 +612,25 @@
         <v>42728</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2">
         <v>1992</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="4">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="4">
         <v>0</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -640,17 +643,17 @@
       <c r="C3" s="2">
         <v>1940</v>
       </c>
-      <c r="D3" s="2">
-        <v>533</v>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3">
         <v>35308</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2">
         <v>796</v>
@@ -665,19 +668,19 @@
         <v>1940</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="4">
-        <v>30</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>47</v>
+      <c r="O3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="4">
+        <v>-30</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -690,17 +693,17 @@
       <c r="C4" s="2">
         <v>1937</v>
       </c>
-      <c r="D4" s="2">
-        <v>700</v>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3">
         <v>35278</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2">
         <v>18058</v>
@@ -715,19 +718,19 @@
         <v>1937</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="4">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="4">
         <v>0</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -740,17 +743,17 @@
       <c r="C5" s="2">
         <v>1993</v>
       </c>
-      <c r="D5" s="2">
-        <v>36</v>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3">
         <v>35278</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2">
         <v>4955</v>
@@ -765,19 +768,19 @@
         <v>1993</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="4">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="4">
         <v>0</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -790,17 +793,17 @@
       <c r="C6" s="2">
         <v>1993</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="F6" s="3">
         <v>35278</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2">
         <v>4975</v>
@@ -815,19 +818,19 @@
         <v>1993</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="4">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="4">
         <v>31</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -840,17 +843,17 @@
       <c r="C7" s="2">
         <v>1992</v>
       </c>
-      <c r="D7" s="2">
-        <v>54</v>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3">
         <v>35309</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H7" s="2">
         <v>4724</v>
@@ -859,25 +862,25 @@
         <v>42827</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K7" s="2">
         <v>1992</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="4">
+        <v>37</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="4">
         <v>0</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -890,17 +893,17 @@
       <c r="C8" s="2">
         <v>1940</v>
       </c>
-      <c r="D8" s="2">
-        <v>534</v>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F8" s="3">
         <v>35309</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H8" s="2">
         <v>796</v>
@@ -915,19 +918,19 @@
         <v>1940</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="4">
+        <v>37</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="4">
         <v>0</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -940,17 +943,17 @@
       <c r="C9" s="2">
         <v>1937</v>
       </c>
-      <c r="D9" s="2">
-        <v>701</v>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F9" s="3">
         <v>35309</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H9" s="2">
         <v>18058</v>
@@ -965,19 +968,19 @@
         <v>1937</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" s="4">
+        <v>37</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="4">
         <v>0</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -990,17 +993,17 @@
       <c r="C10" s="2">
         <v>1993</v>
       </c>
-      <c r="D10" s="2">
-        <v>33</v>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F10" s="3">
         <v>35309</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H10" s="2">
         <v>4975</v>
@@ -1018,16 +1021,16 @@
         <v>29</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O10" s="4">
+        <v>37</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="4">
         <v>30</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1040,17 +1043,17 @@
       <c r="C11" s="2">
         <v>1937</v>
       </c>
-      <c r="D11" s="2">
-        <v>702</v>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3">
         <v>35339</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H11" s="2">
         <v>18058</v>
@@ -1065,19 +1068,19 @@
         <v>1937</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="4">
+        <v>37</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="4">
         <v>92</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1090,17 +1093,17 @@
       <c r="C12" s="2">
         <v>1997</v>
       </c>
-      <c r="D12" s="2">
-        <v>1</v>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F12" s="3">
         <v>35431</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H12" s="2">
         <v>33242</v>
@@ -1109,40 +1112,40 @@
         <v>214855</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="K12" s="2">
         <v>1997</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="4">
+        <v>37</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="4">
         <v>0</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
-    <hyperlink ref="N5" r:id="rId4"/>
-    <hyperlink ref="N6" r:id="rId5"/>
-    <hyperlink ref="N7" r:id="rId6"/>
-    <hyperlink ref="N8" r:id="rId7"/>
-    <hyperlink ref="N9" r:id="rId8"/>
-    <hyperlink ref="N10" r:id="rId9"/>
-    <hyperlink ref="N11" r:id="rId10"/>
-    <hyperlink ref="N12" r:id="rId11"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O6" r:id="rId5"/>
+    <hyperlink ref="O7" r:id="rId6"/>
+    <hyperlink ref="O8" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
+    <hyperlink ref="O10" r:id="rId9"/>
+    <hyperlink ref="O11" r:id="rId10"/>
+    <hyperlink ref="O12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
